--- a/Παραδοτέο_6/Robustness-Diagrams/robustness_use-case-9.xlsx
+++ b/Παραδοτέο_6/Robustness-Diagrams/robustness_use-case-9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linos\Downloads\ΕΑΡΙΝΟ ΕΞΑΜΗΝΟ 2022\ΤΕΧΝΟΛΟΓΙΑ ΛΟΓΙΣΜΙΚΟΥ\Παροδοτέο_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Τεχνολογία_Λογισμικού_Github\SoftwareTechnology\Παραδοτέο_6\Robustness-Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D9E07D-408B-43CC-A09F-1DDAD49B54DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42AA795-6945-498C-A996-A01247CF1F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2085" windowWidth="17745" windowHeight="13605" xr2:uid="{A4DDFF69-C24F-4EA1-9317-E5A01AEED1D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4DDFF69-C24F-4EA1-9317-E5A01AEED1D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -7716,7 +7716,7 @@
   <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="AL27" sqref="AL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
